--- a/REGULAR/DSWD/BAYLA, EVANGELINE.xlsx
+++ b/REGULAR/DSWD/BAYLA, EVANGELINE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="469">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1438,6 +1438,9 @@
   </si>
   <si>
     <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>8/1,2,4/2023</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2321,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2364,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2428,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2488,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2554,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2617,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2715,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2774,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2839,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2882,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2957,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3143,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3209,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3267,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3333,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3386,7 +3389,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3464,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3507,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3570,7 +3573,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3629,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,7 +3727,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3787,7 +3790,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,8 +3856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K538" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K538"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K539" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K539"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4235,12 +4238,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K538"/>
+  <dimension ref="A2:K539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A486" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A504" activePane="bottomLeft"/>
       <selection activeCell="K140" sqref="K140"/>
-      <selection pane="bottomLeft" activeCell="E500" sqref="E500"/>
+      <selection pane="bottomLeft" activeCell="K518" sqref="K518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,7 +4406,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>54.15100000000001</v>
+        <v>56.90100000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4413,7 +4416,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>176.19900000000001</v>
+        <v>175.94900000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15674,15 +15677,17 @@
       <c r="B514" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C514" s="13"/>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D514" s="39">
         <v>1</v>
       </c>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
@@ -15714,10 +15719,10 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B516" s="20"/>
+      <c r="A516" s="40"/>
+      <c r="B516" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C516" s="13"/>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
@@ -15726,50 +15731,70 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H516" s="39"/>
+      <c r="H516" s="39">
+        <v>1</v>
+      </c>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
-      <c r="K516" s="20"/>
+      <c r="K516" s="49">
+        <v>45138</v>
+      </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B517" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H517" s="39"/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H517" s="39">
+        <v>3</v>
+      </c>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
-      <c r="K517" s="20"/>
+      <c r="K517" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B518" s="20"/>
-      <c r="C518" s="13"/>
-      <c r="D518" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B518" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D518" s="39">
+        <v>1</v>
+      </c>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="20"/>
+      <c r="K518" s="49">
+        <v>45198</v>
+      </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15787,7 +15812,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15805,7 +15830,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15823,7 +15848,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15841,7 +15866,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15859,7 +15884,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15877,7 +15902,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15895,7 +15920,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15913,7 +15938,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15931,7 +15956,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15949,7 +15974,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15967,7 +15992,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15985,7 +16010,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -16003,7 +16028,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -16020,7 +16045,9 @@
       <c r="K532" s="20"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40"/>
+      <c r="A533" s="40">
+        <v>45627</v>
+      </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
       <c r="D533" s="39"/>
@@ -16100,20 +16127,36 @@
       <c r="K537" s="20"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="41"/>
-      <c r="B538" s="15"/>
-      <c r="C538" s="42"/>
-      <c r="D538" s="43"/>
-      <c r="E538" s="52"/>
-      <c r="F538" s="15"/>
-      <c r="G538" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H538" s="43"/>
-      <c r="I538" s="52"/>
-      <c r="J538" s="12"/>
-      <c r="K538" s="15"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39"/>
+      <c r="E538" s="9"/>
+      <c r="F538" s="20"/>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H538" s="39"/>
+      <c r="I538" s="9"/>
+      <c r="J538" s="11"/>
+      <c r="K538" s="20"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" s="41"/>
+      <c r="B539" s="15"/>
+      <c r="C539" s="42"/>
+      <c r="D539" s="43"/>
+      <c r="E539" s="52"/>
+      <c r="F539" s="15"/>
+      <c r="G539" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H539" s="43"/>
+      <c r="I539" s="52"/>
+      <c r="J539" s="12"/>
+      <c r="K539" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
